--- a/QA/testcases/TestCaseExeSheet.xlsx
+++ b/QA/testcases/TestCaseExeSheet.xlsx
@@ -22,10 +22,10 @@
     <t>Test Case Name</t>
   </si>
   <si>
-    <t>Create_DD_Case</t>
+    <t>EDockets\CASE</t>
   </si>
   <si>
-    <t>EDockets\CASE</t>
+    <t>Creating_Case_From_Case</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15"/>
@@ -397,10 +397,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
